--- a/Machine-Order-Data.xlsx
+++ b/Machine-Order-Data.xlsx
@@ -6112,6 +6112,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{87ba5c36-b7cf-4793-bbc2-bd5b3a9f95ca}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>